--- a/Project1/f1.xlsx
+++ b/Project1/f1.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="35120" windowHeight="22460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="35120" windowHeight="22460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="Chart2" sheetId="3" r:id="rId2"/>
     <sheet name="f1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -580,11 +580,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="587836400"/>
-        <c:axId val="647630592"/>
+        <c:axId val="623696672"/>
+        <c:axId val="485702112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="587836400"/>
+        <c:axId val="623696672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,7 +626,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647630592"/>
+        <c:crossAx val="485702112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -634,7 +634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="647630592"/>
+        <c:axId val="485702112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,7 +685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587836400"/>
+        <c:crossAx val="623696672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1207,11 +1207,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="586725776"/>
-        <c:axId val="556204112"/>
+        <c:axId val="623496544"/>
+        <c:axId val="486068272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="586725776"/>
+        <c:axId val="623496544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,7 +1253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556204112"/>
+        <c:crossAx val="486068272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1261,7 +1261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="556204112"/>
+        <c:axId val="486068272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586725776"/>
+        <c:crossAx val="623496544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2515,7 +2515,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="184" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2553,7 +2553,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8676033" cy="6287880"/>
+    <xdr:ext cx="8676033" cy="6294783"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2841,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD50"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N56" sqref="N55:N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3020,8 +3020,8 @@
         <v>3.5</v>
       </c>
       <c r="V2">
-        <f>ABS(2.2361-U2)</f>
-        <v>1.2639</v>
+        <f>ABS((2/5)-U2)</f>
+        <v>3.1</v>
       </c>
       <c r="W2">
         <f xml:space="preserve"> ABS((2.2361 - U2) / 2.2361 )</f>
@@ -3039,8 +3039,8 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AA2">
-        <f>ABS(2.2361-Z2)</f>
-        <v>3.6099999999999799E-2</v>
+        <f>ABS((2/5)-Z2)</f>
+        <v>1.8000000000000003</v>
       </c>
       <c r="AB2">
         <f xml:space="preserve"> ABS((2.2361 - Z2) / 2.2361 )</f>
@@ -3159,7 +3159,7 @@
         <v>0.93609999999999993</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB7" si="16" xml:space="preserve"> ABS((2.2361 - Z3) / 2.2361 )</f>
+        <f t="shared" ref="AB3:AB37" si="16" xml:space="preserve"> ABS((2.2361 - Z3) / 2.2361 )</f>
         <v>0.41863065158087742</v>
       </c>
       <c r="AC3">
@@ -3184,7 +3184,7 @@
         <v>4.4720719109059048E-5</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:E6" si="18">ABS( A5-A4)/ABS(A4-A3 )^0.001</f>
+        <f t="shared" ref="D4:D6" si="18">ABS( A5-A4)/ABS(A4-A3 )^0.001</f>
         <v>1.0052729499745322E-4</v>
       </c>
       <c r="E4">
@@ -3569,11 +3569,11 @@
         <v>0.72778498278252313</v>
       </c>
       <c r="S7">
-        <f t="shared" ref="S7:S50" si="26">ABS( P8-P7)/ABS(P7-1)^0.001</f>
+        <f t="shared" ref="S7" si="26">ABS( P8-P7)/ABS(P7-1)^0.001</f>
         <v>7.9044130803123211E-2</v>
       </c>
       <c r="T7">
-        <f t="shared" ref="T7:T50" si="27">ABS( P8-P7)/ABS(P7-1)^0.5</f>
+        <f t="shared" ref="T7" si="27">ABS( P8-P7)/ABS(P7-1)^0.5</f>
         <v>0.12624297315046751</v>
       </c>
       <c r="U7">
@@ -3647,11 +3647,11 @@
         <v>0.76310093466302942</v>
       </c>
       <c r="S8">
-        <f t="shared" ref="S8:S50" si="30">ABS( P9-P8)/ABS(P8-P7 )^0.001</f>
+        <f t="shared" ref="S8:S11" si="30">ABS( P9-P8)/ABS(P8-P7 )^0.001</f>
         <v>4.9856409305671798E-2</v>
       </c>
       <c r="T8">
-        <f t="shared" ref="T8:T50" si="31">ABS( Q9-Q8)/ABS(Q8-1)^0.5</f>
+        <f t="shared" ref="T8:T11" si="31">ABS( Q9-Q8)/ABS(Q8-1)^0.5</f>
         <v>5.9170104480303083E-2</v>
       </c>
       <c r="U8">
@@ -3681,7 +3681,7 @@
         <v>1.8079799999999999</v>
       </c>
       <c r="AB8">
-        <f t="shared" ref="AB8:AB37" si="33" xml:space="preserve"> ABS((2.2361 - Z8) / 2.2361 )</f>
+        <f t="shared" si="16"/>
         <v>0.80854165734985017</v>
       </c>
       <c r="AC8">
@@ -3759,7 +3759,7 @@
         <v>1.8220399999999999</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.81482939045659852</v>
       </c>
       <c r="AC9">
@@ -3837,7 +3837,7 @@
         <v>1.82907</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.8179732570099727</v>
       </c>
       <c r="AC10">
@@ -3915,7 +3915,7 @@
         <v>1.8325800000000001</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.81954295425070445</v>
       </c>
       <c r="AC11">
@@ -3959,11 +3959,11 @@
         <v>0.81266490765171506</v>
       </c>
       <c r="S12">
-        <f t="shared" ref="S12:S50" si="34">ABS( P13-P12)/ABS(P12-1)^0.001</f>
+        <f t="shared" ref="S12" si="33">ABS( P13-P12)/ABS(P12-1)^0.001</f>
         <v>7.2239203140121956E-3</v>
       </c>
       <c r="T12">
-        <f t="shared" ref="T12:T50" si="35">ABS( P13-P12)/ABS(P12-1)^0.5</f>
+        <f t="shared" ref="T12" si="34">ABS( P13-P12)/ABS(P12-1)^0.5</f>
         <v>9.4713472568996957E-3</v>
       </c>
       <c r="U12">
@@ -3993,7 +3993,7 @@
         <v>1.8343400000000001</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82033003890702572</v>
       </c>
       <c r="AC12">
@@ -4037,11 +4037,11 @@
         <v>0.81589374357139666</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13:S50" si="36">ABS( P14-P13)/ABS(P13-P12 )^0.001</f>
+        <f t="shared" ref="S13:S16" si="35">ABS( P14-P13)/ABS(P13-P12 )^0.001</f>
         <v>4.4820461244065848E-3</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:T50" si="37">ABS( Q14-Q13)/ABS(Q13-1)^0.5</f>
+        <f t="shared" ref="T13:T16" si="36">ABS( Q14-Q13)/ABS(Q13-1)^0.5</f>
         <v>4.9120253473764718E-3</v>
       </c>
       <c r="U13">
@@ -4071,7 +4071,7 @@
         <v>1.8352200000000001</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82072358123518629</v>
       </c>
       <c r="AC13">
@@ -4115,11 +4115,11 @@
         <v>0.81788828764366528</v>
       </c>
       <c r="S14">
+        <f t="shared" si="35"/>
+        <v>2.7749792959232971E-3</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="36"/>
-        <v>2.7749792959232971E-3</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="37"/>
         <v>3.0315396423321326E-3</v>
       </c>
       <c r="U14">
@@ -4149,7 +4149,7 @@
         <v>1.8356599999999998</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82092035239926653</v>
       </c>
       <c r="AC14">
@@ -4193,11 +4193,11 @@
         <v>0.81912257949107825</v>
       </c>
       <c r="S15">
+        <f t="shared" si="35"/>
+        <v>1.7100468634432481E-3</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="36"/>
-        <v>1.7100468634432481E-3</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="37"/>
         <v>1.8641516367001248E-3</v>
       </c>
       <c r="U15">
@@ -4227,7 +4227,7 @@
         <v>1.83588</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82101873798130676</v>
       </c>
       <c r="AC15">
@@ -4271,11 +4271,11 @@
         <v>0.81988283171593401</v>
       </c>
       <c r="S16">
+        <f t="shared" si="35"/>
+        <v>1.0667813544471131E-3</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="36"/>
-        <v>1.0667813544471131E-3</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="37"/>
         <v>1.1611671772515993E-3</v>
       </c>
       <c r="U16">
@@ -4305,7 +4305,7 @@
         <v>1.83599</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82106793077232687</v>
       </c>
       <c r="AC16">
@@ -4349,11 +4349,11 @@
         <v>0.82035687133849111</v>
       </c>
       <c r="S17">
-        <f t="shared" ref="S17:S50" si="38">ABS( P18-P17)/ABS(P17-1)^0.001</f>
+        <f t="shared" ref="S17" si="37">ABS( P18-P17)/ABS(P17-1)^0.001</f>
         <v>6.5033396670188728E-4</v>
       </c>
       <c r="T17">
-        <f t="shared" ref="T17:T50" si="39">ABS( P18-P17)/ABS(P17-1)^0.5</f>
+        <f t="shared" ref="T17" si="38">ABS( P18-P17)/ABS(P17-1)^0.5</f>
         <v>8.4033771455949765E-4</v>
       </c>
       <c r="U17">
@@ -4383,7 +4383,7 @@
         <v>1.83605</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82109476320379227</v>
       </c>
       <c r="AC17">
@@ -4427,11 +4427,11 @@
         <v>0.82064755601270067</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:S50" si="40">ABS( P19-P18)/ABS(P18-P17 )^0.001</f>
+        <f t="shared" ref="S18:S21" si="39">ABS( P19-P18)/ABS(P18-P17 )^0.001</f>
         <v>4.029462125023973E-4</v>
       </c>
       <c r="T18">
-        <f t="shared" ref="T18:T50" si="41">ABS( Q19-Q18)/ABS(Q18-1)^0.5</f>
+        <f t="shared" ref="T18:T21" si="40">ABS( Q19-Q18)/ABS(Q18-1)^0.5</f>
         <v>4.3772741871670812E-4</v>
       </c>
       <c r="U18">
@@ -4461,7 +4461,7 @@
         <v>1.8360699999999999</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82110370734761406</v>
       </c>
       <c r="AC18">
@@ -4505,11 +4505,11 @@
         <v>0.82082643888913731</v>
       </c>
       <c r="S19">
+        <f t="shared" si="39"/>
+        <v>2.5196368346027016E-4</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="40"/>
-        <v>2.5196368346027016E-4</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="41"/>
         <v>2.7351413609562119E-4</v>
       </c>
       <c r="U19">
@@ -4539,7 +4539,7 @@
         <v>1.83609</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111265149143597</v>
       </c>
       <c r="AC19">
@@ -4583,11 +4583,11 @@
         <v>0.82093824068691035</v>
       </c>
       <c r="S20">
+        <f t="shared" si="39"/>
+        <v>1.5124928108403468E-4</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="40"/>
-        <v>1.5124928108403468E-4</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="41"/>
         <v>1.6408393326110721E-4</v>
       </c>
       <c r="U20">
@@ -4617,7 +4617,7 @@
         <v>1.83609</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111265149143597</v>
       </c>
       <c r="AC20" t="e">
@@ -4661,11 +4661,11 @@
         <v>0.82100532176557395</v>
       </c>
       <c r="S21">
+        <f t="shared" si="39"/>
+        <v>1.0088437521963735E-4</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="40"/>
-        <v>1.0088437521963735E-4</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="41"/>
         <v>1.093794730069095E-4</v>
       </c>
       <c r="U21">
@@ -4695,7 +4695,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC21">
@@ -4739,11 +4739,11 @@
         <v>0.82105004248468316</v>
       </c>
       <c r="S22">
-        <f t="shared" ref="S22:S50" si="42">ABS( P23-P22)/ABS(P22-1)^0.001</f>
+        <f t="shared" ref="S22" si="41">ABS( P23-P22)/ABS(P22-1)^0.001</f>
         <v>6.0030672376590616E-5</v>
       </c>
       <c r="T22">
-        <f t="shared" ref="T22:T50" si="43">ABS( P23-P22)/ABS(P22-1)^0.5</f>
+        <f t="shared" ref="T22" si="42">ABS( P23-P22)/ABS(P22-1)^0.5</f>
         <v>7.7469351198358901E-5</v>
       </c>
       <c r="U22">
@@ -4773,7 +4773,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC22" t="e">
@@ -4817,11 +4817,11 @@
         <v>0.82107687491614867</v>
       </c>
       <c r="S23">
-        <f t="shared" ref="S23:S50" si="44">ABS( P24-P23)/ABS(P23-P22 )^0.001</f>
+        <f t="shared" ref="S23:S26" si="43">ABS( P24-P23)/ABS(P23-P22 )^0.001</f>
         <v>3.0293057100358919E-5</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:T50" si="45">ABS( Q24-Q23)/ABS(Q23-1)^0.5</f>
+        <f t="shared" ref="T23:T26" si="44">ABS( Q24-Q23)/ABS(Q23-1)^0.5</f>
         <v>3.2810701708790221E-5</v>
       </c>
       <c r="U23">
@@ -4851,7 +4851,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC23" t="e">
@@ -4895,11 +4895,11 @@
         <v>0.82109029113188137</v>
       </c>
       <c r="S24">
+        <f t="shared" si="43"/>
+        <v>2.0209374617607781E-5</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="44"/>
-        <v>2.0209374617607781E-5</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="45"/>
         <v>2.1873408682103881E-5</v>
       </c>
       <c r="U24">
@@ -4929,7 +4929,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC24" t="e">
@@ -4973,11 +4973,11 @@
         <v>0.82109923527570328</v>
       </c>
       <c r="S25">
+        <f t="shared" si="43"/>
+        <v>2.0217570475326754E-5</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="44"/>
-        <v>2.0217570475326754E-5</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="45"/>
         <v>2.187314705542877E-5</v>
       </c>
       <c r="U25">
@@ -5007,7 +5007,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC25" t="e">
@@ -5051,11 +5051,11 @@
         <v>0.82110817941952507</v>
       </c>
       <c r="S26">
+        <f t="shared" si="43"/>
+        <v>1.0108785237663377E-5</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="44"/>
-        <v>1.0108785237663377E-5</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="45"/>
         <v>1.0936442719313505E-5</v>
       </c>
       <c r="U26">
@@ -5085,7 +5085,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC26" t="e">
@@ -5129,11 +5129,11 @@
         <v>0.82111265149143597</v>
       </c>
       <c r="S27">
-        <f t="shared" ref="S27:S50" si="46">ABS( P28-P27)/ABS(P27-1)^0.001</f>
+        <f t="shared" ref="S27" si="45">ABS( P28-P27)/ABS(P27-1)^0.001</f>
         <v>0</v>
       </c>
       <c r="T27">
-        <f t="shared" ref="T27:T50" si="47">ABS( P28-P27)/ABS(P27-1)^0.5</f>
+        <f t="shared" ref="T27" si="46">ABS( P28-P27)/ABS(P27-1)^0.5</f>
         <v>0</v>
       </c>
       <c r="U27">
@@ -5163,7 +5163,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC27" t="e">
@@ -5207,11 +5207,11 @@
         <v>0.82111265149143597</v>
       </c>
       <c r="S28" t="e">
-        <f t="shared" ref="S28:S50" si="48">ABS( P29-P28)/ABS(P28-P27 )^0.001</f>
+        <f t="shared" ref="S28:S31" si="47">ABS( P29-P28)/ABS(P28-P27 )^0.001</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T28">
-        <f t="shared" ref="T28:T50" si="49">ABS( Q29-Q28)/ABS(Q28-1)^0.5</f>
+        <f t="shared" ref="T28:T31" si="48">ABS( Q29-Q28)/ABS(Q28-1)^0.5</f>
         <v>0</v>
       </c>
       <c r="U28">
@@ -5241,7 +5241,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC28" t="e">
@@ -5285,11 +5285,11 @@
         <v>0.82111265149143597</v>
       </c>
       <c r="S29" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="49"/>
         <v>1.0936377316812455E-5</v>
       </c>
       <c r="U29">
@@ -5319,7 +5319,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC29" t="e">
@@ -5363,11 +5363,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S30">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U30">
@@ -5397,7 +5397,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC30" t="e">
@@ -5441,11 +5441,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S31" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="48"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U31">
@@ -5475,7 +5475,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC31" t="e">
@@ -5519,11 +5519,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S32">
-        <f t="shared" ref="S32:S50" si="50">ABS( P33-P32)/ABS(P32-1)^0.001</f>
+        <f t="shared" ref="S32" si="49">ABS( P33-P32)/ABS(P32-1)^0.001</f>
         <v>0</v>
       </c>
       <c r="T32">
-        <f t="shared" ref="T32:T50" si="51">ABS( P33-P32)/ABS(P32-1)^0.5</f>
+        <f t="shared" ref="T32" si="50">ABS( P33-P32)/ABS(P32-1)^0.5</f>
         <v>0</v>
       </c>
       <c r="U32">
@@ -5553,7 +5553,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC32" t="e">
@@ -5597,11 +5597,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S33" t="e">
-        <f t="shared" ref="S33:S50" si="52">ABS( P34-P33)/ABS(P33-P32 )^0.001</f>
+        <f t="shared" ref="S33:S36" si="51">ABS( P34-P33)/ABS(P33-P32 )^0.001</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T33">
-        <f t="shared" ref="T33:T50" si="53">ABS( Q34-Q33)/ABS(Q33-1)^0.5</f>
+        <f t="shared" ref="T33:T36" si="52">ABS( Q34-Q33)/ABS(Q33-1)^0.5</f>
         <v>0</v>
       </c>
       <c r="U33">
@@ -5631,7 +5631,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC33" t="e">
@@ -5675,11 +5675,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S34" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="U34">
@@ -5709,7 +5709,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC34" t="e">
@@ -5753,11 +5753,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S35" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="U35">
@@ -5787,7 +5787,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC35" t="e">
@@ -5831,11 +5831,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S36" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="52"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="U36">
@@ -5865,7 +5865,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC36" t="e">
@@ -5909,11 +5909,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S37">
-        <f t="shared" ref="S37:S50" si="54">ABS( P38-P37)/ABS(P37-1)^0.001</f>
+        <f t="shared" ref="S37" si="53">ABS( P38-P37)/ABS(P37-1)^0.001</f>
         <v>0</v>
       </c>
       <c r="T37">
-        <f t="shared" ref="T37:T50" si="55">ABS( P38-P37)/ABS(P37-1)^0.5</f>
+        <f t="shared" ref="T37" si="54">ABS( P38-P37)/ABS(P37-1)^0.5</f>
         <v>0</v>
       </c>
       <c r="U37">
@@ -5943,7 +5943,7 @@
         <v>1.8361000000000001</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>0.82111712356334698</v>
       </c>
       <c r="AC37" t="e">
@@ -5968,11 +5968,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S38" t="e">
-        <f t="shared" ref="S38:S50" si="56">ABS( P39-P38)/ABS(P38-P37 )^0.001</f>
+        <f t="shared" ref="S38:S41" si="55">ABS( P39-P38)/ABS(P38-P37 )^0.001</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T38">
-        <f t="shared" ref="T38:T50" si="57">ABS( Q39-Q38)/ABS(Q38-1)^0.5</f>
+        <f t="shared" ref="T38:T41" si="56">ABS( Q39-Q38)/ABS(Q38-1)^0.5</f>
         <v>0</v>
       </c>
     </row>
@@ -5989,11 +5989,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S39" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T39">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
@@ -6010,11 +6010,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S40" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T40">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
@@ -6031,11 +6031,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S41" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
@@ -6052,11 +6052,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S42">
-        <f t="shared" ref="S42:S50" si="58">ABS( P43-P42)/ABS(P42-1)^0.001</f>
+        <f t="shared" ref="S42" si="57">ABS( P43-P42)/ABS(P42-1)^0.001</f>
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="shared" ref="T42:T50" si="59">ABS( P43-P42)/ABS(P42-1)^0.5</f>
+        <f t="shared" ref="T42" si="58">ABS( P43-P42)/ABS(P42-1)^0.5</f>
         <v>0</v>
       </c>
     </row>
@@ -6073,11 +6073,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S43" t="e">
-        <f t="shared" ref="S43:S50" si="60">ABS( P44-P43)/ABS(P43-P42 )^0.001</f>
+        <f t="shared" ref="S43:S46" si="59">ABS( P44-P43)/ABS(P43-P42 )^0.001</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T43">
-        <f t="shared" ref="T43:T50" si="61">ABS( Q44-Q43)/ABS(Q43-1)^0.5</f>
+        <f t="shared" ref="T43:T46" si="60">ABS( Q44-Q43)/ABS(Q43-1)^0.5</f>
         <v>0</v>
       </c>
     </row>
@@ -6094,11 +6094,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S44" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T44">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -6115,11 +6115,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S45" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -6136,11 +6136,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S46" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T46">
         <f t="shared" si="60"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -6157,11 +6157,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S47">
-        <f t="shared" ref="S47:S50" si="62">ABS( P48-P47)/ABS(P47-1)^0.001</f>
+        <f t="shared" ref="S47" si="61">ABS( P48-P47)/ABS(P47-1)^0.001</f>
         <v>0</v>
       </c>
       <c r="T47">
-        <f t="shared" ref="T47:T50" si="63">ABS( P48-P47)/ABS(P47-1)^0.5</f>
+        <f t="shared" ref="T47" si="62">ABS( P48-P47)/ABS(P47-1)^0.5</f>
         <v>0</v>
       </c>
     </row>
@@ -6178,11 +6178,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S48" t="e">
-        <f t="shared" ref="S48:S50" si="64">ABS( P49-P48)/ABS(P48-P47 )^0.001</f>
+        <f t="shared" ref="S48:S50" si="63">ABS( P49-P48)/ABS(P48-P47 )^0.001</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T48">
-        <f t="shared" ref="T48:T50" si="65">ABS( Q49-Q48)/ABS(Q48-1)^0.5</f>
+        <f t="shared" ref="T48:T50" si="64">ABS( Q49-Q48)/ABS(Q48-1)^0.5</f>
         <v>0</v>
       </c>
     </row>
@@ -6199,11 +6199,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S49" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T49">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="65"/>
         <v>0</v>
       </c>
     </row>
@@ -6220,11 +6220,11 @@
         <v>0.82111712356334698</v>
       </c>
       <c r="S50" t="e">
+        <f t="shared" si="63"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T50">
         <f t="shared" si="64"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="65"/>
         <v>2.0080162307890013</v>
       </c>
     </row>
